--- a/GameData/GameData.xlsx
+++ b/GameData/GameData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Unreal\MyProject\Project2\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E76CC8B0-9831-4299-B547-4B16035FB60E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6561DA01-85B2-4D5E-8900-A5E58F8A8146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1550" yWindow="1800" windowWidth="19200" windowHeight="11170" activeTab="2" xr2:uid="{B82C8279-B566-4ED0-BB93-2003657E0DE1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{B82C8279-B566-4ED0-BB93-2003657E0DE1}"/>
   </bookViews>
   <sheets>
     <sheet name="PTCharacterStatTable" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>MaxHp</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,6 +108,10 @@
   </si>
   <si>
     <t>Single</t>
+  </si>
+  <si>
+    <t>Scorch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -734,19 +738,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF759602-E8A5-4A3B-9EAD-436E657575D6}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:L29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5.4140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
@@ -770,11 +773,11 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>18</v>
       </c>
       <c r="B2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="C2">
         <v>100</v>
@@ -786,186 +789,6 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>150</v>
-      </c>
-      <c r="C3">
-        <v>120</v>
-      </c>
-      <c r="D3">
-        <v>40</v>
-      </c>
-      <c r="E3">
-        <v>1.05</v>
-      </c>
-      <c r="F3">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>200</v>
-      </c>
-      <c r="C4">
-        <v>140</v>
-      </c>
-      <c r="D4">
-        <v>40</v>
-      </c>
-      <c r="E4">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F4">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>250</v>
-      </c>
-      <c r="C5">
-        <v>160</v>
-      </c>
-      <c r="D5">
-        <v>40</v>
-      </c>
-      <c r="E5">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="F5">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>300</v>
-      </c>
-      <c r="C6">
-        <v>180</v>
-      </c>
-      <c r="D6">
-        <v>40</v>
-      </c>
-      <c r="E6">
-        <v>1.2</v>
-      </c>
-      <c r="F6">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>350</v>
-      </c>
-      <c r="C7">
-        <v>200</v>
-      </c>
-      <c r="D7">
-        <v>40</v>
-      </c>
-      <c r="E7">
-        <v>1.25</v>
-      </c>
-      <c r="F7">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>400</v>
-      </c>
-      <c r="C8">
-        <v>220</v>
-      </c>
-      <c r="D8">
-        <v>40</v>
-      </c>
-      <c r="E8">
-        <v>1.3</v>
-      </c>
-      <c r="F8">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>450</v>
-      </c>
-      <c r="C9">
-        <v>240</v>
-      </c>
-      <c r="D9">
-        <v>40</v>
-      </c>
-      <c r="E9">
-        <v>1.35</v>
-      </c>
-      <c r="F9">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>500</v>
-      </c>
-      <c r="C10">
-        <v>260</v>
-      </c>
-      <c r="D10">
-        <v>40</v>
-      </c>
-      <c r="E10">
-        <v>1.4</v>
-      </c>
-      <c r="F10">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>550</v>
-      </c>
-      <c r="C11">
-        <v>280</v>
-      </c>
-      <c r="D11">
-        <v>40</v>
-      </c>
-      <c r="E11">
-        <v>1.45</v>
-      </c>
-      <c r="F11">
         <v>400</v>
       </c>
     </row>
@@ -979,8 +802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25AB6EFE-9593-4037-824F-AEAB25F04985}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1035,22 +858,22 @@
         <v>14</v>
       </c>
       <c r="B2">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C2">
-        <v>300</v>
+        <v>5000</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -1064,22 +887,22 @@
         <v>16</v>
       </c>
       <c r="B3">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="C3">
-        <v>200</v>
+        <v>3500</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H3" t="s">
         <v>17</v>

--- a/GameData/GameData.xlsx
+++ b/GameData/GameData.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Unreal\MyProject\Project2\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6561DA01-85B2-4D5E-8900-A5E58F8A8146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33877A44-6E1A-4A10-9031-43C438FC1195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{B82C8279-B566-4ED0-BB93-2003657E0DE1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{B82C8279-B566-4ED0-BB93-2003657E0DE1}"/>
   </bookViews>
   <sheets>
     <sheet name="PTCharacterStatTable" sheetId="1" r:id="rId1"/>
-    <sheet name="PTMonsterStatTable" sheetId="2" r:id="rId2"/>
-    <sheet name="PTGunTable" sheetId="3" r:id="rId3"/>
+    <sheet name="PTGunTable" sheetId="3" r:id="rId2"/>
+    <sheet name="PTMonsterStatTable" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,8 +37,35 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={C4A0B6D8-2066-4DFB-9FE5-DA06F0F2B9D7}</author>
+    <author>tc={3292947F-E177-4979-B165-CC4763FE5B45}</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{C4A0B6D8-2066-4DFB-9FE5-DA06F0F2B9D7}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    반동은 총기 고유 스탯</t>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="1" shapeId="0" xr:uid="{3292947F-E177-4979-B165-CC4763FE5B45}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    FireRate는 총기 고유의 영역, 스탯으로 변경하지 않는다.</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>MaxHp</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,6 +138,38 @@
   </si>
   <si>
     <t>Scorch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>MaxHp</t>
+  </si>
+  <si>
+    <t>Attack</t>
+  </si>
+  <si>
+    <t>MovementSpeed</t>
+  </si>
+  <si>
+    <t>RangeIncreaseRatio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReloadReduceRatio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Penetration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Armor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageReduceRatio</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -118,7 +177,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,6 +192,12 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -176,6 +241,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="19995" id="{078EE7BD-9E42-43AC-AE9D-CF4C44B19142}" userId="S::D19995@365f.me::c0a1b4b9-d56c-4b3e-a8b4-c819462a0e82" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -493,44 +564,67 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="E1" dT="2024-06-28T05:59:40.31" personId="{078EE7BD-9E42-43AC-AE9D-CF4C44B19142}" id="{C4A0B6D8-2066-4DFB-9FE5-DA06F0F2B9D7}">
+    <text>반동은 총기 고유 스탯</text>
+  </threadedComment>
+  <threadedComment ref="F1" dT="2024-06-28T05:59:14.45" personId="{078EE7BD-9E42-43AC-AE9D-CF4C44B19142}" id="{3292947F-E177-4979-B165-CC4763FE5B45}">
+    <text>FireRate는 총기 고유의 영역, 스탯으로 변경하지 않는다.</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B1B43C0-AEC3-42CF-B1D7-A380AEB0CAA2}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="5.4140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.9140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.9140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -541,193 +635,22 @@
         <v>100</v>
       </c>
       <c r="D2">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>400</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>150</v>
-      </c>
-      <c r="C3">
-        <v>120</v>
-      </c>
-      <c r="D3">
-        <v>40</v>
-      </c>
-      <c r="E3">
-        <v>1.05</v>
-      </c>
-      <c r="F3">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>200</v>
-      </c>
-      <c r="C4">
-        <v>140</v>
-      </c>
-      <c r="D4">
-        <v>40</v>
-      </c>
-      <c r="E4">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F4">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>250</v>
-      </c>
-      <c r="C5">
-        <v>160</v>
-      </c>
-      <c r="D5">
-        <v>40</v>
-      </c>
-      <c r="E5">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="F5">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>300</v>
-      </c>
-      <c r="C6">
-        <v>180</v>
-      </c>
-      <c r="D6">
-        <v>40</v>
-      </c>
-      <c r="E6">
-        <v>1.2</v>
-      </c>
-      <c r="F6">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>350</v>
-      </c>
-      <c r="C7">
-        <v>200</v>
-      </c>
-      <c r="D7">
-        <v>40</v>
-      </c>
-      <c r="E7">
-        <v>1.25</v>
-      </c>
-      <c r="F7">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>400</v>
-      </c>
-      <c r="C8">
-        <v>220</v>
-      </c>
-      <c r="D8">
-        <v>40</v>
-      </c>
-      <c r="E8">
-        <v>1.3</v>
-      </c>
-      <c r="F8">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>450</v>
-      </c>
-      <c r="C9">
-        <v>240</v>
-      </c>
-      <c r="D9">
-        <v>40</v>
-      </c>
-      <c r="E9">
-        <v>1.35</v>
-      </c>
-      <c r="F9">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>500</v>
-      </c>
-      <c r="C10">
-        <v>260</v>
-      </c>
-      <c r="D10">
-        <v>40</v>
-      </c>
-      <c r="E10">
-        <v>1.4</v>
-      </c>
-      <c r="F10">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>550</v>
-      </c>
-      <c r="C11">
-        <v>280</v>
-      </c>
-      <c r="D11">
-        <v>40</v>
-      </c>
-      <c r="E11">
-        <v>1.45</v>
-      </c>
-      <c r="F11">
-        <v>400</v>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -737,73 +660,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF759602-E8A5-4A3B-9EAD-436E657575D6}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="6.33203125" customWidth="1"/>
-    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.75" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2">
-        <v>200</v>
-      </c>
-      <c r="C2">
-        <v>100</v>
-      </c>
-      <c r="D2">
-        <v>40</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>400</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25AB6EFE-9593-4037-824F-AEAB25F04985}">
-  <dimension ref="A1:I3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25AB6EFE-9593-4037-824F-AEAB25F04985}">
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -824,7 +685,7 @@
     <col min="14" max="14" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -852,8 +713,11 @@
       <c r="I1" t="s">
         <v>13</v>
       </c>
+      <c r="J1" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -881,8 +745,11 @@
       <c r="I2">
         <v>1</v>
       </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -909,6 +776,72 @@
       </c>
       <c r="I3">
         <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF759602-E8A5-4A3B-9EAD-436E657575D6}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="6.33203125" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2">
+        <v>200</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2">
+        <v>40</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>400</v>
       </c>
     </row>
   </sheetData>

--- a/GameData/GameData.xlsx
+++ b/GameData/GameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Unreal\MyProject\Project2\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33877A44-6E1A-4A10-9031-43C438FC1195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A141390-A261-4222-B930-4D0BC4264A31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{B82C8279-B566-4ED0-BB93-2003657E0DE1}"/>
+    <workbookView xWindow="5580" yWindow="3470" windowWidth="19200" windowHeight="11170" activeTab="1" xr2:uid="{B82C8279-B566-4ED0-BB93-2003657E0DE1}"/>
   </bookViews>
   <sheets>
     <sheet name="PTCharacterStatTable" sheetId="1" r:id="rId1"/>
@@ -131,9 +131,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Rifle2</t>
-  </si>
-  <si>
     <t>Single</t>
   </si>
   <si>
@@ -170,6 +167,10 @@
   </si>
   <si>
     <t>DamageReduceRatio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Launcher</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -177,7 +178,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,12 +193,6 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -579,7 +574,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B1B43C0-AEC3-42CF-B1D7-A380AEB0CAA2}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -597,31 +592,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>22</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>23</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>24</v>
-      </c>
-      <c r="I1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
@@ -663,13 +658,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25AB6EFE-9593-4037-824F-AEAB25F04985}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="6.08203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
@@ -714,7 +709,7 @@
         <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
@@ -751,28 +746,28 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B3">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="C3">
         <v>3500</v>
       </c>
       <c r="D3">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F3">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -826,7 +821,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2">
         <v>200</v>

--- a/GameData/GameData.xlsx
+++ b/GameData/GameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Unreal\MyProject\Project2\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A141390-A261-4222-B930-4D0BC4264A31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E84AD063-CF45-4B72-988E-E78D754FE3CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="3470" windowWidth="19200" windowHeight="11170" activeTab="1" xr2:uid="{B82C8279-B566-4ED0-BB93-2003657E0DE1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{B82C8279-B566-4ED0-BB93-2003657E0DE1}"/>
   </bookViews>
   <sheets>
     <sheet name="PTCharacterStatTable" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
     <author>tc={3292947F-E177-4979-B165-CC4763FE5B45}</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{C4A0B6D8-2066-4DFB-9FE5-DA06F0F2B9D7}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{C4A0B6D8-2066-4DFB-9FE5-DA06F0F2B9D7}">
       <text>
         <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -52,7 +52,7 @@
     반동은 총기 고유 스탯</t>
       </text>
     </comment>
-    <comment ref="F1" authorId="1" shapeId="0" xr:uid="{3292947F-E177-4979-B165-CC4763FE5B45}">
+    <comment ref="G1" authorId="1" shapeId="0" xr:uid="{3292947F-E177-4979-B165-CC4763FE5B45}">
       <text>
         <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>MaxHp</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -171,6 +171,26 @@
   </si>
   <si>
     <t>Launcher</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GunType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BaseRifle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BaseLauncher</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BaseEmitter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Emitter</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -561,10 +581,10 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="E1" dT="2024-06-28T05:59:40.31" personId="{078EE7BD-9E42-43AC-AE9D-CF4C44B19142}" id="{C4A0B6D8-2066-4DFB-9FE5-DA06F0F2B9D7}">
+  <threadedComment ref="F1" dT="2024-06-28T05:59:40.31" personId="{078EE7BD-9E42-43AC-AE9D-CF4C44B19142}" id="{C4A0B6D8-2066-4DFB-9FE5-DA06F0F2B9D7}">
     <text>반동은 총기 고유 스탯</text>
   </threadedComment>
-  <threadedComment ref="F1" dT="2024-06-28T05:59:14.45" personId="{078EE7BD-9E42-43AC-AE9D-CF4C44B19142}" id="{3292947F-E177-4979-B165-CC4763FE5B45}">
+  <threadedComment ref="G1" dT="2024-06-28T05:59:14.45" personId="{078EE7BD-9E42-43AC-AE9D-CF4C44B19142}" id="{3292947F-E177-4979-B165-CC4763FE5B45}">
     <text>FireRate는 총기 고유의 영역, 스탯으로 변경하지 않는다.</text>
   </threadedComment>
 </ThreadedComments>
@@ -656,124 +676,169 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25AB6EFE-9593-4037-824F-AEAB25F04985}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.4140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.08203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.9140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.58203125" customWidth="1"/>
+    <col min="2" max="2" width="8.75" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.4140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.08203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.9140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>5</v>
       </c>
       <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>30</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>5000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>25</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>2</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>0.1</v>
       </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="H2">
+        <v>1.5</v>
+      </c>
+      <c r="I2" t="s">
         <v>15</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
       </c>
       <c r="J2">
         <v>1</v>
       </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
         <v>27</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>80</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>3500</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>3</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>10</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.5</v>
       </c>
-      <c r="G3">
-        <v>4</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3" t="s">
         <v>16</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
       </c>
       <c r="J3">
         <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>500</v>
+      </c>
+      <c r="E4">
+        <v>250</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0.02</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>999</v>
       </c>
     </row>
   </sheetData>

--- a/GameData/GameData.xlsx
+++ b/GameData/GameData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Unreal\MyProject\Project2\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E84AD063-CF45-4B72-988E-E78D754FE3CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E669E6-8F47-4C90-A323-CA639C2B18DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{B82C8279-B566-4ED0-BB93-2003657E0DE1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{B82C8279-B566-4ED0-BB93-2003657E0DE1}"/>
   </bookViews>
   <sheets>
     <sheet name="PTCharacterStatTable" sheetId="1" r:id="rId1"/>
@@ -678,7 +678,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25AB6EFE-9593-4037-824F-AEAB25F04985}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -852,8 +852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF759602-E8A5-4A3B-9EAD-436E657575D6}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -889,7 +889,7 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C2">
         <v>100</v>

--- a/GameData/GameData.xlsx
+++ b/GameData/GameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Unreal\MyProject\Project2\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E669E6-8F47-4C90-A323-CA639C2B18DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5263C735-70B7-4E51-B515-6430DD7ED5FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{B82C8279-B566-4ED0-BB93-2003657E0DE1}"/>
+    <workbookView xWindow="0" yWindow="3170" windowWidth="19200" windowHeight="11170" activeTab="2" xr2:uid="{B82C8279-B566-4ED0-BB93-2003657E0DE1}"/>
   </bookViews>
   <sheets>
     <sheet name="PTCharacterStatTable" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t>MaxHp</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,10 +79,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AttackSpeed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MovementSpeed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -191,6 +187,14 @@
   </si>
   <si>
     <t>Emitter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackRadius</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackCooldown</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -595,7 +599,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -612,31 +616,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>23</v>
-      </c>
-      <c r="I1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
@@ -703,45 +707,45 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" t="s">
-        <v>13</v>
-      </c>
       <c r="K1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2">
         <v>30</v>
@@ -762,7 +766,7 @@
         <v>1.5</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -773,10 +777,10 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3">
         <v>80</v>
@@ -797,7 +801,7 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -808,10 +812,10 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
         <v>31</v>
-      </c>
-      <c r="B4" t="s">
-        <v>32</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -832,7 +836,7 @@
         <v>5</v>
       </c>
       <c r="I4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -850,10 +854,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF759602-E8A5-4A3B-9EAD-436E657575D6}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -864,9 +868,9 @@
     <col min="5" max="5" width="15.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -878,15 +882,18 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2">
         <v>100</v>
@@ -895,12 +902,15 @@
         <v>100</v>
       </c>
       <c r="D2">
-        <v>40</v>
+        <v>400</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
         <v>400</v>
       </c>
     </row>

--- a/GameData/GameData.xlsx
+++ b/GameData/GameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Unreal\MyProject\Project2\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5263C735-70B7-4E51-B515-6430DD7ED5FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{857A920B-5AB7-45B7-AC31-5E922C6DEAA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3170" windowWidth="19200" windowHeight="11170" activeTab="2" xr2:uid="{B82C8279-B566-4ED0-BB93-2003657E0DE1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{B82C8279-B566-4ED0-BB93-2003657E0DE1}"/>
   </bookViews>
   <sheets>
     <sheet name="PTCharacterStatTable" sheetId="1" r:id="rId1"/>
@@ -857,7 +857,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -866,6 +866,7 @@
     <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -905,7 +906,7 @@
         <v>400</v>
       </c>
       <c r="E2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F2">
         <v>3</v>

--- a/GameData/GameData.xlsx
+++ b/GameData/GameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Unreal\MyProject\Project2\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{857A920B-5AB7-45B7-AC31-5E922C6DEAA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9FD9D06-7D16-4E6E-B930-A5AD13D68EF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{B82C8279-B566-4ED0-BB93-2003657E0DE1}"/>
+    <workbookView xWindow="0" yWindow="3170" windowWidth="19200" windowHeight="11170" activeTab="2" xr2:uid="{B82C8279-B566-4ED0-BB93-2003657E0DE1}"/>
   </bookViews>
   <sheets>
     <sheet name="PTCharacterStatTable" sheetId="1" r:id="rId1"/>
@@ -599,7 +599,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -648,7 +648,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="C2">
         <v>100</v>
@@ -906,7 +906,7 @@
         <v>400</v>
       </c>
       <c r="E2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="F2">
         <v>3</v>

--- a/GameData/GameData.xlsx
+++ b/GameData/GameData.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Unreal\MyProject\Project2\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9FD9D06-7D16-4E6E-B930-A5AD13D68EF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{080115AD-3F29-4A3F-8A7E-EB1787A2B87D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3170" windowWidth="19200" windowHeight="11170" activeTab="2" xr2:uid="{B82C8279-B566-4ED0-BB93-2003657E0DE1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{B82C8279-B566-4ED0-BB93-2003657E0DE1}"/>
   </bookViews>
   <sheets>
     <sheet name="PTCharacterStatTable" sheetId="1" r:id="rId1"/>
     <sheet name="PTGunTable" sheetId="3" r:id="rId2"/>
-    <sheet name="PTMonsterStatTable" sheetId="2" r:id="rId3"/>
+    <sheet name="PTProjectileTable" sheetId="4" r:id="rId3"/>
+    <sheet name="PTMonsterStatTable" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -65,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
   <si>
     <t>MaxHp</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -195,6 +196,30 @@
   </si>
   <si>
     <t>AttackCooldown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExplosionRadius</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Radius</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExplosionEffect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TrailEffect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExplosionSound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoveSpeed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -683,7 +708,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -853,10 +878,70 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43C036FB-5875-4DAE-94F4-EFECD2FB8E56}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.58203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2">
+        <v>45</v>
+      </c>
+      <c r="C2">
+        <v>200</v>
+      </c>
+      <c r="D2">
+        <v>2000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF759602-E8A5-4A3B-9EAD-436E657575D6}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>

--- a/GameData/GameData.xlsx
+++ b/GameData/GameData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Unreal\MyProject\Project2\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{080115AD-3F29-4A3F-8A7E-EB1787A2B87D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{368D0512-C4ED-4469-8871-B141D1F1D5A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{B82C8279-B566-4ED0-BB93-2003657E0DE1}"/>
   </bookViews>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
   <si>
     <t>MaxHp</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -220,6 +220,14 @@
   </si>
   <si>
     <t>MoveSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_IggyScorch_Projectile_Trail.P_IggyScorch_Projectile_Trail'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_Turret_Explosion.p_Turret_Explosion'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -882,15 +890,15 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="51.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -929,6 +937,12 @@
       </c>
       <c r="D2">
         <v>2000</v>
+      </c>
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/GameData/GameData.xlsx
+++ b/GameData/GameData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Unreal\MyProject\Project2\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{368D0512-C4ED-4469-8871-B141D1F1D5A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5D674BC-59BF-41DD-BB1E-20A3A1EC0853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{B82C8279-B566-4ED0-BB93-2003657E0DE1}"/>
   </bookViews>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
   <si>
     <t>MaxHp</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -223,12 +223,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>P_IggyScorch_Projectile_Trail.P_IggyScorch_Projectile_Trail'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p_Turret_Explosion.p_Turret_Explosion'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>SkeletalMesh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SM_Rocket_Xalign</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_BaseLauncher_Tail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_Explosion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SFX_Projectile_Explosion</t>
   </si>
 </sst>
 </file>
@@ -887,22 +898,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43C036FB-5875-4DAE-94F4-EFECD2FB8E56}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="51.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.58203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.08203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -916,16 +929,19 @@
         <v>39</v>
       </c>
       <c r="E1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" t="s">
         <v>37</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>36</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -939,10 +955,16 @@
         <v>2000</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="G2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/GameData/GameData.xlsx
+++ b/GameData/GameData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Unreal\MyProject\Project2\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5D674BC-59BF-41DD-BB1E-20A3A1EC0853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5ACE38F-835D-4351-BBE3-72B4CEE25FDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{B82C8279-B566-4ED0-BB93-2003657E0DE1}"/>
   </bookViews>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
   <si>
     <t>MaxHp</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -223,10 +223,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SkeletalMesh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SM_Rocket_Xalign</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -240,6 +236,14 @@
   </si>
   <si>
     <t>SFX_Projectile_Explosion</t>
+  </si>
+  <si>
+    <t>ProjectileName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StaticMesh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -643,7 +647,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -724,10 +728,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25AB6EFE-9593-4037-824F-AEAB25F04985}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -749,7 +753,7 @@
     <col min="15" max="15" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -783,8 +787,11 @@
       <c r="K1" t="s">
         <v>23</v>
       </c>
+      <c r="L1" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -792,7 +799,7 @@
         <v>13</v>
       </c>
       <c r="C2">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D2">
         <v>5000</v>
@@ -819,7 +826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -827,7 +834,7 @@
         <v>26</v>
       </c>
       <c r="C3">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D3">
         <v>3500</v>
@@ -853,8 +860,11 @@
       <c r="K3">
         <v>1</v>
       </c>
+      <c r="L3" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -929,7 +939,7 @@
         <v>39</v>
       </c>
       <c r="E1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F1" t="s">
         <v>37</v>
@@ -949,22 +959,22 @@
         <v>45</v>
       </c>
       <c r="C2">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="D2">
         <v>2000</v>
       </c>
       <c r="E2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" t="s">
         <v>41</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>42</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>43</v>
-      </c>
-      <c r="H2" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/GameData/GameData.xlsx
+++ b/GameData/GameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Unreal\MyProject\Project2\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5ACE38F-835D-4351-BBE3-72B4CEE25FDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{118ABE1B-F338-4A81-A2C0-7C7905B50030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{B82C8279-B566-4ED0-BB93-2003657E0DE1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{B82C8279-B566-4ED0-BB93-2003657E0DE1}"/>
   </bookViews>
   <sheets>
     <sheet name="PTCharacterStatTable" sheetId="1" r:id="rId1"/>
@@ -730,8 +730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25AB6EFE-9593-4037-824F-AEAB25F04985}">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -840,16 +840,16 @@
         <v>3500</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>10</v>
       </c>
       <c r="G3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="I3" t="s">
         <v>15</v>
@@ -910,7 +910,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43C036FB-5875-4DAE-94F4-EFECD2FB8E56}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
